--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gdf9-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H2">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I2">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J2">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N2">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O2">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P2">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q2">
-        <v>91.26123541771508</v>
+        <v>93.66962111652748</v>
       </c>
       <c r="R2">
-        <v>91.26123541771508</v>
+        <v>374.6784844661099</v>
       </c>
       <c r="S2">
-        <v>0.1229876796753516</v>
+        <v>0.08322813059857374</v>
       </c>
       <c r="T2">
-        <v>0.1229876796753516</v>
+        <v>0.05175582637429108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H3">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I3">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J3">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P3">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q3">
-        <v>43.62936937198909</v>
+        <v>47.900673480915</v>
       </c>
       <c r="R3">
-        <v>43.62936937198909</v>
+        <v>287.40404088549</v>
       </c>
       <c r="S3">
-        <v>0.0587968690123408</v>
+        <v>0.04256111491333665</v>
       </c>
       <c r="T3">
-        <v>0.0587968690123408</v>
+        <v>0.03970026103990106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H4">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I4">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J4">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N4">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O4">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P4">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q4">
-        <v>38.69287647735087</v>
+        <v>40.342180967465</v>
       </c>
       <c r="R4">
-        <v>38.69287647735087</v>
+        <v>242.05308580479</v>
       </c>
       <c r="S4">
-        <v>0.05214423271976259</v>
+        <v>0.03584517868407436</v>
       </c>
       <c r="T4">
-        <v>0.05214423271976259</v>
+        <v>0.03343575359050869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H5">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I5">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J5">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N5">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O5">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P5">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q5">
-        <v>41.61664776199694</v>
+        <v>42.7154853397975</v>
       </c>
       <c r="R5">
-        <v>41.61664776199694</v>
+        <v>256.2929120387849</v>
       </c>
       <c r="S5">
-        <v>0.05608443629638699</v>
+        <v>0.03795392732526859</v>
       </c>
       <c r="T5">
-        <v>0.05608443629638699</v>
+        <v>0.03540275731429305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H6">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I6">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J6">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N6">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O6">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P6">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q6">
-        <v>60.56842063406231</v>
+        <v>63.37882274789499</v>
       </c>
       <c r="R6">
-        <v>60.56842063406231</v>
+        <v>380.27293648737</v>
       </c>
       <c r="S6">
-        <v>0.08162468414204727</v>
+        <v>0.05631389210257982</v>
       </c>
       <c r="T6">
-        <v>0.08162468414204727</v>
+        <v>0.0525286102395942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H7">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I7">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J7">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N7">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O7">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P7">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q7">
-        <v>59.14781220934599</v>
+        <v>62.67533869940624</v>
       </c>
       <c r="R7">
-        <v>59.14781220934599</v>
+        <v>250.701354797625</v>
       </c>
       <c r="S7">
-        <v>0.0797102093589325</v>
+        <v>0.05568882645628242</v>
       </c>
       <c r="T7">
-        <v>0.0797102093589325</v>
+        <v>0.0346303733164562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H8">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I8">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J8">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N8">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O8">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P8">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q8">
-        <v>59.87495000709424</v>
+        <v>63.34906089295666</v>
       </c>
       <c r="R8">
-        <v>59.87495000709424</v>
+        <v>380.09436535774</v>
       </c>
       <c r="S8">
-        <v>0.08069013243514306</v>
+        <v>0.0562874478454115</v>
       </c>
       <c r="T8">
-        <v>0.08069013243514306</v>
+        <v>0.05250394350060661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H9">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I9">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J9">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P9">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q9">
-        <v>28.62448988370598</v>
+        <v>32.39537691074</v>
       </c>
       <c r="R9">
-        <v>28.62448988370598</v>
+        <v>291.5583921966601</v>
       </c>
       <c r="S9">
-        <v>0.03857562936304721</v>
+        <v>0.02878421657073788</v>
       </c>
       <c r="T9">
-        <v>0.03857562936304721</v>
+        <v>0.0402741180775292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H10">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I10">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J10">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N10">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O10">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P10">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q10">
-        <v>25.38574055137484</v>
+        <v>27.28354452809556</v>
       </c>
       <c r="R10">
-        <v>25.38574055137484</v>
+        <v>245.55190075286</v>
       </c>
       <c r="S10">
-        <v>0.03421094742980022</v>
+        <v>0.02424220766678938</v>
       </c>
       <c r="T10">
-        <v>0.03421094742980022</v>
+        <v>0.03391905878809995</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H11">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I11">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J11">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N11">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O11">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P11">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q11">
-        <v>27.3039773437992</v>
+        <v>28.88861777818778</v>
       </c>
       <c r="R11">
-        <v>27.3039773437992</v>
+        <v>259.99756000369</v>
       </c>
       <c r="S11">
-        <v>0.03679604822411146</v>
+        <v>0.025668361039533</v>
       </c>
       <c r="T11">
-        <v>0.03679604822411146</v>
+        <v>0.03591449504356968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H12">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I12">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J12">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N12">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O12">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P12">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q12">
-        <v>39.73791436061554</v>
+        <v>42.86329819339777</v>
       </c>
       <c r="R12">
-        <v>39.73791436061554</v>
+        <v>385.76968374058</v>
       </c>
       <c r="S12">
-        <v>0.05355257202009398</v>
+        <v>0.03808526326254421</v>
       </c>
       <c r="T12">
-        <v>0.05355257202009398</v>
+        <v>0.05328789775744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.25057698901264</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H13">
-        <v>1.25057698901264</v>
+        <v>3.96841</v>
       </c>
       <c r="I13">
-        <v>0.2961218470305662</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J13">
-        <v>0.2961218470305662</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.0303784479615</v>
+        <v>32.0437125</v>
       </c>
       <c r="N13">
-        <v>31.0303784479615</v>
+        <v>64.087425</v>
       </c>
       <c r="O13">
-        <v>0.1766047256654188</v>
+        <v>0.1787240771757799</v>
       </c>
       <c r="P13">
-        <v>0.1766047256654188</v>
+        <v>0.1399469470356803</v>
       </c>
       <c r="Q13">
-        <v>38.8058772473744</v>
+        <v>42.38752970737499</v>
       </c>
       <c r="R13">
-        <v>38.8058772473744</v>
+        <v>254.32517824425</v>
       </c>
       <c r="S13">
-        <v>0.05229651755837026</v>
+        <v>0.03766252938983932</v>
       </c>
       <c r="T13">
-        <v>0.05229651755837026</v>
+        <v>0.03513094643418369</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H14">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I14">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J14">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.8778600063375</v>
+        <v>47.890007</v>
       </c>
       <c r="N14">
-        <v>47.8778600063375</v>
+        <v>95.78001399999999</v>
       </c>
       <c r="O14">
-        <v>0.2724896296719846</v>
+        <v>0.2671069186198896</v>
       </c>
       <c r="P14">
-        <v>0.2724896296719846</v>
+        <v>0.2091536763465644</v>
       </c>
       <c r="Q14">
-        <v>51.0608176247963</v>
+        <v>32.153925379884</v>
       </c>
       <c r="R14">
-        <v>51.0608176247963</v>
+        <v>192.923552279304</v>
       </c>
       <c r="S14">
-        <v>0.06881181756148995</v>
+        <v>0.02856967999736678</v>
       </c>
       <c r="T14">
-        <v>0.06881181756148995</v>
+        <v>0.02664929610118104</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H15">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I15">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J15">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.8890265335089</v>
+        <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>22.8890265335089</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.1302694473571393</v>
+        <v>0.136592858397365</v>
       </c>
       <c r="P15">
-        <v>0.1302694473571393</v>
+        <v>0.1604351844054064</v>
       </c>
       <c r="Q15">
-        <v>24.41070693806947</v>
+        <v>16.442840938104</v>
       </c>
       <c r="R15">
-        <v>24.41070693806947</v>
+        <v>147.985568442936</v>
       </c>
       <c r="S15">
-        <v>0.03289694898175133</v>
+        <v>0.01460993326006556</v>
       </c>
       <c r="T15">
-        <v>0.03289694898175133</v>
+        <v>0.0204418340090893</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H16">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I16">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J16">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.2992224984225</v>
+        <v>20.62554866666667</v>
       </c>
       <c r="N16">
-        <v>20.2992224984225</v>
+        <v>61.876646</v>
       </c>
       <c r="O16">
-        <v>0.1155299677239583</v>
+        <v>0.1150391719340928</v>
       </c>
       <c r="P16">
-        <v>0.1155299677239583</v>
+        <v>0.1351192952518773</v>
       </c>
       <c r="Q16">
-        <v>21.6487307030831</v>
+        <v>13.848240881384</v>
       </c>
       <c r="R16">
-        <v>21.6487307030831</v>
+        <v>124.634167932456</v>
       </c>
       <c r="S16">
-        <v>0.02917478757439547</v>
+        <v>0.01230455709009986</v>
       </c>
       <c r="T16">
-        <v>0.02917478757439547</v>
+        <v>0.01721621236140099</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H17">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I17">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J17">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8331039061868</v>
+        <v>21.83893633333333</v>
       </c>
       <c r="N17">
-        <v>21.8331039061868</v>
+        <v>65.51680899999999</v>
       </c>
       <c r="O17">
-        <v>0.1242598227489555</v>
+        <v>0.1218068518956912</v>
       </c>
       <c r="P17">
-        <v>0.1242598227489555</v>
+        <v>0.1430682758601985</v>
       </c>
       <c r="Q17">
-        <v>23.28458574776454</v>
+        <v>14.662923921436</v>
       </c>
       <c r="R17">
-        <v>23.28458574776454</v>
+        <v>131.966315292924</v>
       </c>
       <c r="S17">
-        <v>0.03137933822845702</v>
+        <v>0.01302842621272116</v>
       </c>
       <c r="T17">
-        <v>0.03137933822845702</v>
+        <v>0.01822903098182386</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.06648078293469</v>
+        <v>0.671412</v>
       </c>
       <c r="H18">
-        <v>1.06648078293469</v>
+        <v>2.014236</v>
       </c>
       <c r="I18">
-        <v>0.2525300417646121</v>
+        <v>0.1069597154015441</v>
       </c>
       <c r="J18">
-        <v>0.2525300417646121</v>
+        <v>0.1274149064299667</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.7756641212386</v>
+        <v>32.40337933333333</v>
       </c>
       <c r="N18">
-        <v>31.7756641212386</v>
+        <v>97.210138</v>
       </c>
       <c r="O18">
-        <v>0.1808464068325435</v>
+        <v>0.1807301219771816</v>
       </c>
       <c r="P18">
-        <v>0.1808464068325435</v>
+        <v>0.2122766211002732</v>
       </c>
       <c r="Q18">
-        <v>33.88813515028828</v>
+        <v>21.756017724952</v>
       </c>
       <c r="R18">
-        <v>33.88813515028828</v>
+        <v>195.804159524568</v>
       </c>
       <c r="S18">
-        <v>0.04566915067040223</v>
+        <v>0.01933084241116568</v>
       </c>
       <c r="T18">
-        <v>0.04566915067040223</v>
+        <v>0.0270472058147608</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.671412</v>
+      </c>
+      <c r="H19">
+        <v>2.014236</v>
+      </c>
+      <c r="I19">
+        <v>0.1069597154015441</v>
+      </c>
+      <c r="J19">
+        <v>0.1274149064299667</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.0437125</v>
+      </c>
+      <c r="N19">
+        <v>64.087425</v>
+      </c>
+      <c r="O19">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P19">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q19">
+        <v>21.51453309705</v>
+      </c>
+      <c r="R19">
+        <v>129.0871985823</v>
+      </c>
+      <c r="S19">
+        <v>0.01911627643012501</v>
+      </c>
+      <c r="T19">
+        <v>0.01783132716171071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.261338</v>
+      </c>
+      <c r="H20">
+        <v>0.784014</v>
+      </c>
+      <c r="I20">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J20">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>47.890007</v>
+      </c>
+      <c r="N20">
+        <v>95.78001399999999</v>
+      </c>
+      <c r="O20">
+        <v>0.2671069186198896</v>
+      </c>
+      <c r="P20">
+        <v>0.2091536763465644</v>
+      </c>
+      <c r="Q20">
+        <v>12.515478649366</v>
+      </c>
+      <c r="R20">
+        <v>75.09287189619599</v>
+      </c>
+      <c r="S20">
+        <v>0.01112035982548992</v>
+      </c>
+      <c r="T20">
+        <v>0.01037287648193725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.261338</v>
+      </c>
+      <c r="H21">
+        <v>0.784014</v>
+      </c>
+      <c r="I21">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J21">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.489942</v>
+      </c>
+      <c r="N21">
+        <v>73.46982600000001</v>
+      </c>
+      <c r="O21">
+        <v>0.136592858397365</v>
+      </c>
+      <c r="P21">
+        <v>0.1604351844054064</v>
+      </c>
+      <c r="Q21">
+        <v>6.400152462396001</v>
+      </c>
+      <c r="R21">
+        <v>57.60137216156401</v>
+      </c>
+      <c r="S21">
+        <v>0.00568671804840994</v>
+      </c>
+      <c r="T21">
+        <v>0.007956706189742485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.261338</v>
+      </c>
+      <c r="H22">
+        <v>0.784014</v>
+      </c>
+      <c r="I22">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J22">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>20.62554866666667</v>
+      </c>
+      <c r="N22">
+        <v>61.876646</v>
+      </c>
+      <c r="O22">
+        <v>0.1150391719340928</v>
+      </c>
+      <c r="P22">
+        <v>0.1351192952518773</v>
+      </c>
+      <c r="Q22">
+        <v>5.390239637449334</v>
+      </c>
+      <c r="R22">
+        <v>48.512156737044</v>
+      </c>
+      <c r="S22">
+        <v>0.00478938169233275</v>
+      </c>
+      <c r="T22">
+        <v>0.006701176782815635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.261338</v>
+      </c>
+      <c r="H23">
+        <v>0.784014</v>
+      </c>
+      <c r="I23">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J23">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>21.83893633333333</v>
+      </c>
+      <c r="N23">
+        <v>65.51680899999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1218068518956912</v>
+      </c>
+      <c r="P23">
+        <v>0.1430682758601985</v>
+      </c>
+      <c r="Q23">
+        <v>5.707343943480667</v>
+      </c>
+      <c r="R23">
+        <v>51.36609549132599</v>
+      </c>
+      <c r="S23">
+        <v>0.005071137914693397</v>
+      </c>
+      <c r="T23">
+        <v>0.00709540267187343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.261338</v>
+      </c>
+      <c r="H24">
+        <v>0.784014</v>
+      </c>
+      <c r="I24">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J24">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>32.40337933333333</v>
+      </c>
+      <c r="N24">
+        <v>97.210138</v>
+      </c>
+      <c r="O24">
+        <v>0.1807301219771816</v>
+      </c>
+      <c r="P24">
+        <v>0.2122766211002732</v>
+      </c>
+      <c r="Q24">
+        <v>8.468234348214667</v>
+      </c>
+      <c r="R24">
+        <v>76.214109133932</v>
+      </c>
+      <c r="S24">
+        <v>0.007524267802853118</v>
+      </c>
+      <c r="T24">
+        <v>0.01052775743242295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.261338</v>
+      </c>
+      <c r="H25">
+        <v>0.784014</v>
+      </c>
+      <c r="I25">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J25">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>32.0437125</v>
+      </c>
+      <c r="N25">
+        <v>64.087425</v>
+      </c>
+      <c r="O25">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P25">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q25">
+        <v>8.374239737325</v>
+      </c>
+      <c r="R25">
+        <v>50.24543842395</v>
+      </c>
+      <c r="S25">
+        <v>0.007440750909569699</v>
+      </c>
+      <c r="T25">
+        <v>0.006940601862622584</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.998443</v>
+      </c>
+      <c r="H26">
+        <v>2.995329</v>
+      </c>
+      <c r="I26">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J26">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>47.890007</v>
+      </c>
+      <c r="N26">
+        <v>95.78001399999999</v>
+      </c>
+      <c r="O26">
+        <v>0.2671069186198896</v>
+      </c>
+      <c r="P26">
+        <v>0.2091536763465644</v>
+      </c>
+      <c r="Q26">
+        <v>47.815442259101</v>
+      </c>
+      <c r="R26">
+        <v>286.892653554606</v>
+      </c>
+      <c r="S26">
+        <v>0.04248538454125168</v>
+      </c>
+      <c r="T26">
+        <v>0.0396296210778948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.998443</v>
+      </c>
+      <c r="H27">
+        <v>2.995329</v>
+      </c>
+      <c r="I27">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J27">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>24.489942</v>
+      </c>
+      <c r="N27">
+        <v>73.46982600000001</v>
+      </c>
+      <c r="O27">
+        <v>0.136592858397365</v>
+      </c>
+      <c r="P27">
+        <v>0.1604351844054064</v>
+      </c>
+      <c r="Q27">
+        <v>24.451811160306</v>
+      </c>
+      <c r="R27">
+        <v>220.066300442754</v>
+      </c>
+      <c r="S27">
+        <v>0.02172613178492437</v>
+      </c>
+      <c r="T27">
+        <v>0.03039863165021947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.06648078293469</v>
-      </c>
-      <c r="H19">
-        <v>1.06648078293469</v>
-      </c>
-      <c r="I19">
-        <v>0.2525300417646121</v>
-      </c>
-      <c r="J19">
-        <v>0.2525300417646121</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>31.0303784479615</v>
-      </c>
-      <c r="N19">
-        <v>31.0303784479615</v>
-      </c>
-      <c r="O19">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="P19">
-        <v>0.1766047256654188</v>
-      </c>
-      <c r="Q19">
-        <v>33.09330230194171</v>
-      </c>
-      <c r="R19">
-        <v>33.09330230194171</v>
-      </c>
-      <c r="S19">
-        <v>0.04459799874811608</v>
-      </c>
-      <c r="T19">
-        <v>0.04459799874811608</v>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.998443</v>
+      </c>
+      <c r="H28">
+        <v>2.995329</v>
+      </c>
+      <c r="I28">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J28">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>20.62554866666667</v>
+      </c>
+      <c r="N28">
+        <v>61.876646</v>
+      </c>
+      <c r="O28">
+        <v>0.1150391719340928</v>
+      </c>
+      <c r="P28">
+        <v>0.1351192952518773</v>
+      </c>
+      <c r="Q28">
+        <v>20.59343468739267</v>
+      </c>
+      <c r="R28">
+        <v>185.340912186534</v>
+      </c>
+      <c r="S28">
+        <v>0.01829785421575809</v>
+      </c>
+      <c r="T28">
+        <v>0.02560187592529518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.998443</v>
+      </c>
+      <c r="H29">
+        <v>2.995329</v>
+      </c>
+      <c r="I29">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J29">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>21.83893633333333</v>
+      </c>
+      <c r="N29">
+        <v>65.51680899999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1218068518956912</v>
+      </c>
+      <c r="P29">
+        <v>0.1430682758601985</v>
+      </c>
+      <c r="Q29">
+        <v>21.80493310946233</v>
+      </c>
+      <c r="R29">
+        <v>196.244397985161</v>
+      </c>
+      <c r="S29">
+        <v>0.01937430512577665</v>
+      </c>
+      <c r="T29">
+        <v>0.02710801770088285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.998443</v>
+      </c>
+      <c r="H30">
+        <v>2.995329</v>
+      </c>
+      <c r="I30">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J30">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>32.40337933333333</v>
+      </c>
+      <c r="N30">
+        <v>97.210138</v>
+      </c>
+      <c r="O30">
+        <v>0.1807301219771816</v>
+      </c>
+      <c r="P30">
+        <v>0.2122766211002732</v>
+      </c>
+      <c r="Q30">
+        <v>32.35292727171133</v>
+      </c>
+      <c r="R30">
+        <v>291.176345445402</v>
+      </c>
+      <c r="S30">
+        <v>0.02874649885544419</v>
+      </c>
+      <c r="T30">
+        <v>0.04022134444321403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.998443</v>
+      </c>
+      <c r="H31">
+        <v>2.995329</v>
+      </c>
+      <c r="I31">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J31">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>32.0437125</v>
+      </c>
+      <c r="N31">
+        <v>64.087425</v>
+      </c>
+      <c r="O31">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P31">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q31">
+        <v>31.9938204396375</v>
+      </c>
+      <c r="R31">
+        <v>191.962922637825</v>
+      </c>
+      <c r="S31">
+        <v>0.02842742219043345</v>
+      </c>
+      <c r="T31">
+        <v>0.02651660051551049</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.067313</v>
+      </c>
+      <c r="H32">
+        <v>2.134626</v>
+      </c>
+      <c r="I32">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J32">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>47.890007</v>
+      </c>
+      <c r="N32">
+        <v>95.78001399999999</v>
+      </c>
+      <c r="O32">
+        <v>0.2671069186198896</v>
+      </c>
+      <c r="P32">
+        <v>0.2091536763465644</v>
+      </c>
+      <c r="Q32">
+        <v>51.11362704119099</v>
+      </c>
+      <c r="R32">
+        <v>204.454508164764</v>
+      </c>
+      <c r="S32">
+        <v>0.04541591581179592</v>
+      </c>
+      <c r="T32">
+        <v>0.02824211281065361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.067313</v>
+      </c>
+      <c r="H33">
+        <v>2.134626</v>
+      </c>
+      <c r="I33">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J33">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>24.489942</v>
+      </c>
+      <c r="N33">
+        <v>73.46982600000001</v>
+      </c>
+      <c r="O33">
+        <v>0.136592858397365</v>
+      </c>
+      <c r="P33">
+        <v>0.1604351844054064</v>
+      </c>
+      <c r="Q33">
+        <v>26.138433465846</v>
+      </c>
+      <c r="R33">
+        <v>156.830600795076</v>
+      </c>
+      <c r="S33">
+        <v>0.02322474381989055</v>
+      </c>
+      <c r="T33">
+        <v>0.02166363343892487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.067313</v>
+      </c>
+      <c r="H34">
+        <v>2.134626</v>
+      </c>
+      <c r="I34">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J34">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>20.62554866666667</v>
+      </c>
+      <c r="N34">
+        <v>61.876646</v>
+      </c>
+      <c r="O34">
+        <v>0.1150391719340928</v>
+      </c>
+      <c r="P34">
+        <v>0.1351192952518773</v>
+      </c>
+      <c r="Q34">
+        <v>22.013916224066</v>
+      </c>
+      <c r="R34">
+        <v>132.083497344396</v>
+      </c>
+      <c r="S34">
+        <v>0.01955999258503832</v>
+      </c>
+      <c r="T34">
+        <v>0.01824521780375683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.067313</v>
+      </c>
+      <c r="H35">
+        <v>2.134626</v>
+      </c>
+      <c r="I35">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J35">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>21.83893633333333</v>
+      </c>
+      <c r="N35">
+        <v>65.51680899999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1218068518956912</v>
+      </c>
+      <c r="P35">
+        <v>0.1430682758601985</v>
+      </c>
+      <c r="Q35">
+        <v>23.308980654739</v>
+      </c>
+      <c r="R35">
+        <v>139.853883928434</v>
+      </c>
+      <c r="S35">
+        <v>0.02071069427769844</v>
+      </c>
+      <c r="T35">
+        <v>0.01931857214775564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.067313</v>
+      </c>
+      <c r="H36">
+        <v>2.134626</v>
+      </c>
+      <c r="I36">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J36">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>32.40337933333333</v>
+      </c>
+      <c r="N36">
+        <v>97.210138</v>
+      </c>
+      <c r="O36">
+        <v>0.1807301219771816</v>
+      </c>
+      <c r="P36">
+        <v>0.2122766211002732</v>
+      </c>
+      <c r="Q36">
+        <v>34.584548006398</v>
+      </c>
+      <c r="R36">
+        <v>207.507288038388</v>
+      </c>
+      <c r="S36">
+        <v>0.03072935754259453</v>
+      </c>
+      <c r="T36">
+        <v>0.0286638054128412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.067313</v>
+      </c>
+      <c r="H37">
+        <v>2.134626</v>
+      </c>
+      <c r="I37">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J37">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>32.0437125</v>
+      </c>
+      <c r="N37">
+        <v>64.087425</v>
+      </c>
+      <c r="O37">
+        <v>0.1787240771757799</v>
+      </c>
+      <c r="P37">
+        <v>0.1399469470356803</v>
+      </c>
+      <c r="Q37">
+        <v>34.2006709195125</v>
+      </c>
+      <c r="R37">
+        <v>136.80268367805</v>
+      </c>
+      <c r="S37">
+        <v>0.03038827179952997</v>
+      </c>
+      <c r="T37">
+        <v>0.01889709774519664</v>
       </c>
     </row>
   </sheetData>
